--- a/deployment/Omaha_Cal_Info_CE02SHSP_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE02SHSP_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="1140" windowWidth="25596" windowHeight="16056" tabRatio="579"/>
+    <workbookView xWindow="2130" yWindow="1140" windowWidth="25590" windowHeight="16050" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="115">
   <si>
     <t>Ref Des</t>
   </si>
@@ -318,28 +318,7 @@
     <t>CE02SHSP-00001</t>
   </si>
   <si>
-    <t>CE02SHSP-SP001-02-DOSTAJ000</t>
-  </si>
-  <si>
     <t>CE02SHSP-SP001-04-OPTAAJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-05-VELPTJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-06-NUTNRJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-07-SPKIRJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-08-FLORTJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-09-CTDPFJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-10-PARADJ000</t>
   </si>
   <si>
     <t>CE02SHSP-SP001-00-SPPENG000</t>
@@ -394,6 +373,27 @@
   </si>
   <si>
     <t>N00595</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-01-DOSTAJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-02-VELPTJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-05-NUTNRJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-06-SPKIRJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-07-FLORTJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-08-CTDPFJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-09-PARADJ000</t>
   </si>
 </sst>
 </file>
@@ -2274,30 +2274,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2333,9 +2332,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>87</v>
@@ -2356,16 +2355,16 @@
         <v>42096</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J2" s="39">
         <v>80</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M2" s="44">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
@@ -2376,25 +2375,25 @@
         <v>-124.30043333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -2403,7 +2402,7 @@
         <v>44.639099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
@@ -2412,61 +2411,61 @@
         <v>-124.30043333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2490,29 +2489,29 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" style="7" customWidth="1"/>
-    <col min="7" max="7" width="37.77734375" customWidth="1"/>
-    <col min="8" max="8" width="57.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>63</v>
@@ -2521,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>2</v>
@@ -2536,7 +2535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2547,12 +2546,12 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>88</v>
@@ -2561,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F3" s="33">
         <v>209</v>
@@ -2576,12 +2575,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>89</v>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>88</v>
@@ -2590,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F4" s="34">
         <v>209</v>
@@ -2605,12 +2604,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>89</v>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>88</v>
@@ -2619,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F5" s="34">
         <v>209</v>
@@ -2634,12 +2633,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>89</v>
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>88</v>
@@ -2648,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F6" s="34">
         <v>209</v>
@@ -2663,7 +2662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="23"/>
@@ -2674,12 +2673,12 @@
       <c r="H7" s="21"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>88</v>
@@ -2688,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>6</v>
@@ -2703,12 +2702,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>88</v>
@@ -2717,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>6</v>
@@ -2730,12 +2729,12 @@
       </c>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>88</v>
@@ -2744,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>6</v>
@@ -2757,12 +2756,12 @@
       </c>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>88</v>
@@ -2771,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>6</v>
@@ -2784,12 +2783,12 @@
       </c>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>88</v>
@@ -2798,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>6</v>
@@ -2811,12 +2810,12 @@
       </c>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>88</v>
@@ -2825,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>6</v>
@@ -2838,12 +2837,12 @@
       </c>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>88</v>
@@ -2852,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>6</v>
@@ -2865,12 +2864,12 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>88</v>
@@ -2879,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>6</v>
@@ -2892,7 +2891,7 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="23"/>
@@ -2903,12 +2902,12 @@
       <c r="H16" s="21"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>88</v>
@@ -2917,10 +2916,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>8</v>
@@ -2932,12 +2931,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>91</v>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>88</v>
@@ -2946,10 +2945,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>9</v>
@@ -2961,7 +2960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="23"/>
@@ -2972,12 +2971,12 @@
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>88</v>
@@ -2986,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F20" s="33">
         <v>337</v>
@@ -3001,12 +3000,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>92</v>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>88</v>
@@ -3015,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F21" s="34">
         <v>337</v>
@@ -3030,12 +3029,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>92</v>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>88</v>
@@ -3044,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F22" s="34">
         <v>337</v>
@@ -3059,12 +3058,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>92</v>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>88</v>
@@ -3073,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F23" s="34">
         <v>337</v>
@@ -3088,12 +3087,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>92</v>
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>88</v>
@@ -3102,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F24" s="34">
         <v>337</v>
@@ -3117,12 +3116,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>92</v>
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>88</v>
@@ -3131,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F25" s="34">
         <v>337</v>
@@ -3146,12 +3145,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>92</v>
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>88</v>
@@ -3160,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F26" s="34">
         <v>337</v>
@@ -3175,7 +3174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="23"/>
@@ -3186,12 +3185,12 @@
       <c r="H27" s="21"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>88</v>
@@ -3200,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F28" s="33">
         <v>237</v>
@@ -3213,12 +3212,12 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>93</v>
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>88</v>
@@ -3227,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F29" s="34">
         <v>237</v>
@@ -3240,12 +3239,12 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>93</v>
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>88</v>
@@ -3254,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F30" s="34">
         <v>237</v>
@@ -3267,7 +3266,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="23"/>
@@ -3278,12 +3277,12 @@
       <c r="H31" s="21"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>88</v>
@@ -3292,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>13</v>
@@ -3307,12 +3306,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>94</v>
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>88</v>
@@ -3321,10 +3320,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>15</v>
@@ -3336,12 +3335,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>94</v>
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>88</v>
@@ -3350,10 +3349,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>17</v>
@@ -3365,12 +3364,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>94</v>
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>88</v>
@@ -3379,10 +3378,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>18</v>
@@ -3394,12 +3393,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
-        <v>94</v>
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>88</v>
@@ -3408,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>20</v>
@@ -3423,12 +3422,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
-        <v>94</v>
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>88</v>
@@ -3437,10 +3436,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>21</v>
@@ -3452,12 +3451,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
-        <v>94</v>
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>88</v>
@@ -3466,10 +3465,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>59</v>
@@ -3481,12 +3480,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>94</v>
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>88</v>
@@ -3495,10 +3494,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>60</v>
@@ -3510,12 +3509,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
-        <v>94</v>
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>88</v>
@@ -3524,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>61</v>
@@ -3539,12 +3538,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>94</v>
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>88</v>
@@ -3553,10 +3552,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F41" s="50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>62</v>
@@ -3568,7 +3567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
@@ -3579,12 +3578,12 @@
       <c r="H42" s="21"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>88</v>
@@ -3593,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>69</v>
@@ -3608,12 +3607,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
-        <v>95</v>
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>88</v>
@@ -3622,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>69</v>
@@ -3637,7 +3636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="23"/>
@@ -3648,12 +3647,12 @@
       <c r="H45" s="21"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>88</v>
@@ -3662,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F46" s="33">
         <v>365</v>
@@ -3675,12 +3674,12 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
         <v>96</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>88</v>
@@ -3689,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F47" s="33">
         <v>365</v>
@@ -3702,12 +3701,12 @@
       </c>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>103</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>88</v>
@@ -3716,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F48" s="33">
         <v>365</v>
@@ -3729,7 +3728,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -3740,11 +3739,13 @@
       <c r="H49" s="30"/>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="31"/>
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
       <c r="C50" s="19" t="s">
         <v>88</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F50" s="35" t="s">
         <v>70</v>
@@ -3761,10 +3762,10 @@
       <c r="H50" s="32"/>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:E54"/>
   <phoneticPr fontId="32" type="noConversion"/>
@@ -3786,9 +3787,9 @@
       <selection sqref="A1:AJ85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4.6008E-2</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>-1.137E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.2536999999999998E-2</v>
       </c>
@@ -4008,7 +4009,7 @@
         <v>-1.358E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.3115000000000001E-2</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>-1.5838999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.3878E-2</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>-1.8959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.3221000000000002E-2</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>-2.0358000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.1510999999999999E-2</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>-1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.7416999999999999E-2</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>-1.8426000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.4866000000000001E-2</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>-1.6534E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.1199999999999999E-2</v>
       </c>
@@ -4778,7 +4779,7 @@
         <v>-1.4978999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.7692999999999999E-2</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>-1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.4787E-2</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>-1.2409E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.1585E-2</v>
       </c>
@@ -5108,7 +5109,7 @@
         <v>-1.1106E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.9362999999999998E-2</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>-1.0659999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.7412E-2</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>-1.0090999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.5740000000000001E-2</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>-9.4520000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.4527E-2</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>-9.214E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.379E-2</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>-9.1629999999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.2543E-2</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>-9.1640000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.1979999999999999E-2</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>-9.2560000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.141E-2</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>-9.3310000000000008E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.0869999999999999E-2</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>-9.4339999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.0403000000000001E-2</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>-9.6699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.018E-2</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>-9.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9.5879999999999993E-3</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>-9.9190000000000007E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9.384E-3</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>-1.0031999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9.025E-3</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>-9.8969999999999995E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8.5540000000000008E-3</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>-9.5949999999999994E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8.3199999999999993E-3</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>-9.2449999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7.9459999999999999E-3</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>-8.9110000000000005E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.5760000000000003E-3</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>-8.286E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7.5640000000000004E-3</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>-7.8480000000000008E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7.2570000000000004E-3</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>-7.273E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7.1209999999999997E-3</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>-6.6730000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7.1009999999999997E-3</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>-6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.9690000000000004E-3</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>-5.555E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7.1580000000000003E-3</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>-5.0730000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7.0470000000000003E-3</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>-4.6169999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.2830000000000004E-3</v>
       </c>
@@ -7968,7 +7969,7 @@
         <v>-4.3220000000000003E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7.0229999999999997E-3</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>-4.0289999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6.6090000000000003E-3</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>-3.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6.4440000000000001E-3</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>-3.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.9170000000000004E-3</v>
       </c>
@@ -8408,7 +8409,7 @@
         <v>-3.4169999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.9090000000000001E-3</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.421E-3</v>
       </c>
@@ -8628,7 +8629,7 @@
         <v>-1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.3699999999999999E-3</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9.7599999999999998E-4</v>
       </c>
@@ -8848,7 +8849,7 @@
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.5900000000000004E-4</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>6.4800000000000003E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1.1E-5</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>1.0020000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-5.62E-4</v>
       </c>
@@ -9178,7 +9179,7 @@
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-1.3389999999999999E-3</v>
       </c>
@@ -9288,7 +9289,7 @@
         <v>1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.0699999999999998E-3</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>1.722E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.702E-3</v>
       </c>
@@ -9508,7 +9509,7 @@
         <v>1.714E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.8639999999999998E-3</v>
       </c>
@@ -9618,7 +9619,7 @@
         <v>1.7279999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.9510000000000001E-3</v>
       </c>
@@ -9728,7 +9729,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.8219999999999999E-3</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>1.3780000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.7550000000000001E-3</v>
       </c>
@@ -9948,7 +9949,7 @@
         <v>1.0640000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.5140000000000002E-3</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.2439999999999999E-3</v>
       </c>
@@ -10168,7 +10169,7 @@
         <v>8.25E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.0070000000000001E-3</v>
       </c>
@@ -10278,7 +10279,7 @@
         <v>6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.7780000000000001E-3</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.655E-3</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>4.6700000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.6310000000000001E-3</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.5989999999999999E-3</v>
       </c>
@@ -10718,7 +10719,7 @@
         <v>1.93E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.493E-3</v>
       </c>
@@ -10828,7 +10829,7 @@
         <v>6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.273E-3</v>
       </c>
@@ -10938,7 +10939,7 @@
         <v>-7.4999999999999993E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.0189999999999999E-3</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>-1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-7.1699999999999997E-4</v>
       </c>
@@ -11158,7 +11159,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.8E-5</v>
       </c>
@@ -11268,7 +11269,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3.28E-4</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>-5.0299999999999997E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5.8299999999999997E-4</v>
       </c>
@@ -11488,7 +11489,7 @@
         <v>-6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8.4999999999999995E-4</v>
       </c>
@@ -11598,7 +11599,7 @@
         <v>-9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.165E-3</v>
       </c>
@@ -11708,7 +11709,7 @@
         <v>-1.168E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.469E-3</v>
       </c>
@@ -11818,7 +11819,7 @@
         <v>-1.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.9949999999999998E-3</v>
       </c>
@@ -11928,7 +11929,7 @@
         <v>-1.586E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.3739999999999998E-3</v>
       </c>
@@ -12038,7 +12039,7 @@
         <v>-1.663E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.3760000000000001E-3</v>
       </c>
@@ -12148,7 +12149,7 @@
         <v>-1.732E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.4130000000000002E-3</v>
       </c>
@@ -12258,7 +12259,7 @@
         <v>-1.681E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2.166E-3</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>-1.699E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.9530000000000001E-3</v>
       </c>
@@ -12478,7 +12479,7 @@
         <v>-1.627E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.7539999999999999E-3</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>-1.565E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.653E-3</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>-1.4779999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.4339999999999999E-3</v>
       </c>
@@ -12808,7 +12809,7 @@
         <v>-1.253E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.5529999999999999E-3</v>
       </c>
@@ -12918,7 +12919,7 @@
         <v>-1.103E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.704E-3</v>
       </c>
@@ -13028,7 +13029,7 @@
         <v>-8.92E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1.725E-3</v>
       </c>
@@ -13156,9 +13157,9 @@
       <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.11464299999999999</v>
       </c>
@@ -13268,7 +13269,7 @@
         <v>-5.0855999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.11143699999999999</v>
       </c>
@@ -13378,7 +13379,7 @@
         <v>-4.8311E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.10566</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>-4.7612000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.103315</v>
       </c>
@@ -13598,7 +13599,7 @@
         <v>-4.4401000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.100078</v>
       </c>
@@ -13708,7 +13709,7 @@
         <v>-4.3917999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9.7517999999999994E-2</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>-4.0932999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.4977000000000006E-2</v>
       </c>
@@ -13928,7 +13929,7 @@
         <v>-3.9729E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9.2086000000000001E-2</v>
       </c>
@@ -14038,7 +14039,7 @@
         <v>-3.8157999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8.8232000000000005E-2</v>
       </c>
@@ -14148,7 +14149,7 @@
         <v>-3.6015999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8.4955000000000003E-2</v>
       </c>
@@ -14258,7 +14259,7 @@
         <v>-3.3876000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8.2607E-2</v>
       </c>
@@ -14368,7 +14369,7 @@
         <v>-3.2259999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7.9913999999999999E-2</v>
       </c>
@@ -14478,7 +14479,7 @@
         <v>-3.0206E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7.8973000000000002E-2</v>
       </c>
@@ -14588,7 +14589,7 @@
         <v>-2.8332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7.6024999999999995E-2</v>
       </c>
@@ -14698,7 +14699,7 @@
         <v>-2.6426000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.4902999999999997E-2</v>
       </c>
@@ -14808,7 +14809,7 @@
         <v>-2.4596E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.3431999999999997E-2</v>
       </c>
@@ -14918,7 +14919,7 @@
         <v>-2.2771E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.2954000000000005E-2</v>
       </c>
@@ -15028,7 +15029,7 @@
         <v>-2.1378000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.2392999999999999E-2</v>
       </c>
@@ -15138,7 +15139,7 @@
         <v>-2.0163E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7.1642999999999998E-2</v>
       </c>
@@ -15248,7 +15249,7 @@
         <v>-1.9016999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7.0186999999999999E-2</v>
       </c>
@@ -15358,7 +15359,7 @@
         <v>-1.8008E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.9302000000000002E-2</v>
       </c>
@@ -15468,7 +15469,7 @@
         <v>-1.7052000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.8472000000000005E-2</v>
       </c>
@@ -15578,7 +15579,7 @@
         <v>-1.6406E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.7325999999999997E-2</v>
       </c>
@@ -15688,7 +15689,7 @@
         <v>-1.5685000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6.6239999999999993E-2</v>
       </c>
@@ -15798,7 +15799,7 @@
         <v>-1.5491E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.5568000000000001E-2</v>
       </c>
@@ -15908,7 +15909,7 @@
         <v>-1.5266999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6.4459000000000002E-2</v>
       </c>
@@ -16018,7 +16019,7 @@
         <v>-1.5446E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6.3698000000000005E-2</v>
       </c>
@@ -16128,7 +16129,7 @@
         <v>-1.5762000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6.2205000000000003E-2</v>
       </c>
@@ -16238,7 +16239,7 @@
         <v>-1.5906E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.1772000000000001E-2</v>
       </c>
@@ -16348,7 +16349,7 @@
         <v>-1.6376000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.0983000000000002E-2</v>
       </c>
@@ -16458,7 +16459,7 @@
         <v>-1.6698000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.9484000000000002E-2</v>
       </c>
@@ -16568,7 +16569,7 @@
         <v>-1.7065E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.885E-2</v>
       </c>
@@ -16678,7 +16679,7 @@
         <v>-1.7538000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.8035000000000003E-2</v>
       </c>
@@ -16788,7 +16789,7 @@
         <v>-1.7956E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.6728000000000001E-2</v>
       </c>
@@ -16898,7 +16899,7 @@
         <v>-1.8258E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.6006E-2</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>-1.8557000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.4544000000000002E-2</v>
       </c>
@@ -17118,7 +17119,7 @@
         <v>-1.8412999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5.3428000000000003E-2</v>
       </c>
@@ -17228,7 +17229,7 @@
         <v>-1.8096000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.2255000000000003E-2</v>
       </c>
@@ -17338,7 +17339,7 @@
         <v>-1.7731E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.1347999999999998E-2</v>
       </c>
@@ -17448,7 +17449,7 @@
         <v>-1.7405E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5.0941E-2</v>
       </c>
@@ -17558,7 +17559,7 @@
         <v>-1.6965000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.0456000000000001E-2</v>
       </c>
@@ -17668,7 +17669,7 @@
         <v>-1.6688000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4.9521000000000003E-2</v>
       </c>
@@ -17778,7 +17779,7 @@
         <v>-1.6479000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.2349E-2</v>
       </c>
@@ -17888,7 +17889,7 @@
         <v>-1.9583E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.2712000000000002E-2</v>
       </c>
@@ -17998,7 +17999,7 @@
         <v>-1.9982E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.2965999999999999E-2</v>
       </c>
@@ -18108,7 +18109,7 @@
         <v>-2.0264000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.373E-2</v>
       </c>
@@ -18218,7 +18219,7 @@
         <v>-2.0386000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.4421999999999998E-2</v>
       </c>
@@ -18328,7 +18329,7 @@
         <v>-2.0745E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.5028000000000001E-2</v>
       </c>
@@ -18438,7 +18439,7 @@
         <v>-2.0560999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.5216000000000001E-2</v>
       </c>
@@ -18548,7 +18549,7 @@
         <v>-2.0379999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.5146000000000001E-2</v>
       </c>
@@ -18658,7 +18659,7 @@
         <v>-1.9935000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5.4336000000000002E-2</v>
       </c>
@@ -18768,7 +18769,7 @@
         <v>-1.9289000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.3359999999999998E-2</v>
       </c>
@@ -18878,7 +18879,7 @@
         <v>-1.8554999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.2211E-2</v>
       </c>
@@ -18988,7 +18989,7 @@
         <v>-1.8151E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.0758999999999999E-2</v>
       </c>
@@ -19098,7 +19099,7 @@
         <v>-1.7795999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4.9699E-2</v>
       </c>
@@ -19208,7 +19209,7 @@
         <v>-1.7281000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4.9028000000000002E-2</v>
       </c>
@@ -19318,7 +19319,7 @@
         <v>-1.6966999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.8057000000000002E-2</v>
       </c>
@@ -19428,7 +19429,7 @@
         <v>-1.6674999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4.7393999999999999E-2</v>
       </c>
@@ -19538,7 +19539,7 @@
         <v>-1.6372000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.6948999999999998E-2</v>
       </c>
@@ -19648,7 +19649,7 @@
         <v>-1.6211E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4.6358000000000003E-2</v>
       </c>
@@ -19758,7 +19759,7 @@
         <v>-1.5982E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.6005999999999998E-2</v>
       </c>
@@ -19868,7 +19869,7 @@
         <v>-1.5730999999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4.5657000000000003E-2</v>
       </c>
@@ -19978,7 +19979,7 @@
         <v>-1.5650000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4.4887999999999997E-2</v>
       </c>
@@ -20088,7 +20089,7 @@
         <v>-1.5442000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4.4344000000000001E-2</v>
       </c>
@@ -20198,7 +20199,7 @@
         <v>-1.5474999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4.3698000000000001E-2</v>
       </c>
@@ -20308,7 +20309,7 @@
         <v>-1.5446E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4.2992000000000002E-2</v>
       </c>
@@ -20418,7 +20419,7 @@
         <v>-1.5382E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4.2221000000000002E-2</v>
       </c>
@@ -20528,7 +20529,7 @@
         <v>-1.5272000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4.2258999999999998E-2</v>
       </c>
@@ -20638,7 +20639,7 @@
         <v>-1.5022000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4.1813000000000003E-2</v>
       </c>
@@ -20748,7 +20749,7 @@
         <v>-1.4598E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4.1190999999999998E-2</v>
       </c>
@@ -20858,7 +20859,7 @@
         <v>-1.439E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4.1315999999999999E-2</v>
       </c>
@@ -20968,7 +20969,7 @@
         <v>-1.4239E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4.0593999999999998E-2</v>
       </c>
@@ -21078,7 +21079,7 @@
         <v>-1.4161E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4.0902000000000001E-2</v>
       </c>
@@ -21188,7 +21189,7 @@
         <v>-1.4272999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.0507000000000001E-2</v>
       </c>
@@ -21298,7 +21299,7 @@
         <v>-1.4279999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4.1043999999999997E-2</v>
       </c>
@@ -21408,7 +21409,7 @@
         <v>-1.4352999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4.0555000000000001E-2</v>
       </c>
@@ -21518,7 +21519,7 @@
         <v>-1.4429000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4.1255E-2</v>
       </c>
@@ -21628,7 +21629,7 @@
         <v>-1.4637000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4.0912999999999998E-2</v>
       </c>
@@ -21738,7 +21739,7 @@
         <v>-1.4713E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4.1392999999999999E-2</v>
       </c>
@@ -21848,7 +21849,7 @@
         <v>-1.5044E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.0951000000000001E-2</v>
       </c>
@@ -21958,7 +21959,7 @@
         <v>-1.5200999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.0934999999999999E-2</v>
       </c>
@@ -22068,7 +22069,7 @@
         <v>-1.54E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.0092999999999997E-2</v>
       </c>
@@ -22178,7 +22179,7 @@
         <v>-1.5492000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3.9625E-2</v>
       </c>
@@ -22288,7 +22289,7 @@
         <v>-1.5389E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3.8066000000000003E-2</v>
       </c>
@@ -22398,7 +22399,7 @@
         <v>-1.4987E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3.8646E-2</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CE02SHSP_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE02SHSP_00001.xlsx
@@ -2487,11 +2487,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50:P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -3739,33 +3739,32 @@
       <c r="H49" s="30"/>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+    <row r="50" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B50" t="s">
+      <c r="J50" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="K50" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="20">
+      <c r="L50" s="20">
         <v>1</v>
       </c>
-      <c r="E50" t="s">
+      <c r="M50" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="N50" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="16"/>
-    </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="32"/>
+    </row>
+    <row r="51" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:E54"/>
   <phoneticPr fontId="32" type="noConversion"/>

--- a/deployment/Omaha_Cal_Info_CE02SHSP_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE02SHSP_00001.xlsx
@@ -2487,11 +2487,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50:P50"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:16" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -3739,32 +3739,32 @@
       <c r="H49" s="30"/>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I50" s="31" t="s">
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J50" t="s">
+      <c r="B50" t="s">
         <v>96</v>
       </c>
-      <c r="K50" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L50" s="20">
+      <c r="D50" s="20">
         <v>1</v>
       </c>
-      <c r="M50" t="s">
+      <c r="E50" t="s">
         <v>97</v>
       </c>
-      <c r="N50" s="35" t="s">
+      <c r="F50" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="O50" s="16"/>
-      <c r="P50" s="32"/>
-    </row>
-    <row r="51" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="32"/>
+    </row>
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:E54"/>
   <phoneticPr fontId="32" type="noConversion"/>
